--- a/temp/pages/StructureDefinition-WREpisodeOfCare.xlsx
+++ b/temp/pages/StructureDefinition-WREpisodeOfCare.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-07T03:01:36+00:00</t>
+    <t>2025-09-07T21:33:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/temp/pages/StructureDefinition-WREpisodeOfCare.xlsx
+++ b/temp/pages/StructureDefinition-WREpisodeOfCare.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-07T21:33:56+00:00</t>
+    <t>2025-09-08T17:38:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
